--- a/data/raw/maine_raw_2025.xlsx
+++ b/data/raw/maine_raw_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2123200231061/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{63CF13EF-7A4F-C54A-A7A5-F373D44EF3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA8FC94-AD95-4B42-B51C-625283BD3578}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478108D0-8031-D441-AF8B-0D7D7124D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="-28200" windowWidth="34400" windowHeight="27000" xr2:uid="{7619B996-321D-514E-B6DB-DA153654289D}"/>
+    <workbookView xWindow="4000" yWindow="-21000" windowWidth="34400" windowHeight="21000" xr2:uid="{7619B996-321D-514E-B6DB-DA153654289D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>bean_yield</t>
   </si>
   <si>
-    <t>seed_weight</t>
-  </si>
-  <si>
     <t>ME_B1_101</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>WF</t>
+  </si>
+  <si>
+    <t>percent_moisture</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61:J62"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,21 +708,21 @@
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2025</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>101</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="7">
         <v>36</v>
@@ -754,19 +754,22 @@
       <c r="N2" s="7">
         <v>9.6</v>
       </c>
+      <c r="O2">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2025</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -775,7 +778,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="7">
         <v>24</v>
@@ -798,19 +801,22 @@
       <c r="N3" s="7">
         <v>3.9</v>
       </c>
+      <c r="O3">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2025</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -819,7 +825,7 @@
         <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -842,19 +848,22 @@
       <c r="N4" s="7">
         <v>12.8</v>
       </c>
+      <c r="O4">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2025</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -863,7 +872,7 @@
         <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -886,19 +895,22 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2025</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -907,7 +919,7 @@
         <v>103</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="7">
         <v>39</v>
@@ -930,19 +942,22 @@
       <c r="N6" s="7">
         <v>3.6</v>
       </c>
+      <c r="O6">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2025</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -951,7 +966,7 @@
         <v>103</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -974,19 +989,22 @@
       <c r="N7" s="7">
         <v>0.6</v>
       </c>
+      <c r="O7">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>2025</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -995,7 +1013,7 @@
         <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -1018,19 +1036,22 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>2025</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1039,7 +1060,7 @@
         <v>104</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -1062,19 +1083,22 @@
       <c r="N9" s="7">
         <v>0.7</v>
       </c>
+      <c r="O9">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>2025</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1083,7 +1107,7 @@
         <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -1106,19 +1130,22 @@
       <c r="N10" s="7">
         <v>10.7</v>
       </c>
+      <c r="O10">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2025</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1127,7 +1154,7 @@
         <v>201</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -1150,19 +1177,22 @@
       <c r="N11" s="7">
         <v>6.7</v>
       </c>
+      <c r="O11">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>2025</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1171,7 +1201,7 @@
         <v>201</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -1194,19 +1224,22 @@
       <c r="N12" s="7">
         <v>1.8</v>
       </c>
+      <c r="O12">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>2025</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1215,7 +1248,7 @@
         <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -1238,19 +1271,22 @@
       <c r="N13" s="7">
         <v>6.7</v>
       </c>
+      <c r="O13">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>2025</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1259,7 +1295,7 @@
         <v>202</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -1282,19 +1318,22 @@
       <c r="N14" s="7">
         <v>12.7</v>
       </c>
+      <c r="O14">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>2025</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1303,7 +1342,7 @@
         <v>202</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -1326,19 +1365,22 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
+      <c r="O15">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>2025</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1347,7 +1389,7 @@
         <v>203</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -1370,19 +1412,22 @@
       <c r="N16" s="7">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>2025</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1391,7 +1436,7 @@
         <v>203</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -1414,19 +1459,22 @@
       <c r="N17" s="7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>2025</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1435,7 +1483,7 @@
         <v>204</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -1458,19 +1506,22 @@
       <c r="N18" s="7">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>2025</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1479,7 +1530,7 @@
         <v>204</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -1502,19 +1553,22 @@
       <c r="N19" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>2025</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1523,7 +1577,7 @@
         <v>301</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -1546,19 +1600,22 @@
       <c r="N20" s="7">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>2025</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1567,7 +1624,7 @@
         <v>301</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -1590,19 +1647,22 @@
       <c r="N21" s="7">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>2025</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1611,7 +1671,7 @@
         <v>302</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -1634,19 +1694,22 @@
       <c r="N22" s="7">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>2025</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1655,7 +1718,7 @@
         <v>302</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -1678,19 +1741,22 @@
       <c r="N23" s="7">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>2025</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1699,7 +1765,7 @@
         <v>303</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -1722,19 +1788,22 @@
       <c r="N24" s="7">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>2025</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1743,7 +1812,7 @@
         <v>303</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -1766,19 +1835,22 @@
       <c r="N25" s="7">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>2025</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1787,7 +1859,7 @@
         <v>304</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -1810,19 +1882,22 @@
       <c r="N26" s="7">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>2025</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1831,7 +1906,7 @@
         <v>304</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>19</v>
@@ -1854,19 +1929,22 @@
       <c r="N27" s="7">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>2025</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1875,7 +1953,7 @@
         <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -1898,19 +1976,22 @@
       <c r="N28" s="7">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>2025</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1919,7 +2000,7 @@
         <v>401</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -1942,19 +2023,22 @@
       <c r="N29" s="7">
         <v>32.299999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>2025</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1963,7 +2047,7 @@
         <v>401</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -1986,19 +2070,22 @@
       <c r="N30" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>2025</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -2007,7 +2094,7 @@
         <v>401</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -2030,19 +2117,22 @@
       <c r="N31" s="7">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>2025</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
         <v>51</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -2051,7 +2141,7 @@
         <v>402</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -2074,19 +2164,22 @@
       <c r="N32" s="7">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>2025</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
         <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -2095,7 +2188,7 @@
         <v>402</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -2118,19 +2211,22 @@
       <c r="N33" s="7">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>2025</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -2139,7 +2235,7 @@
         <v>403</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -2162,19 +2258,22 @@
       <c r="N34" s="7">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>2025</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2183,7 +2282,7 @@
         <v>403</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -2206,19 +2305,22 @@
       <c r="N35" s="7">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>2025</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2227,7 +2329,7 @@
         <v>404</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -2250,19 +2352,22 @@
       <c r="N36" s="7">
         <v>34.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>2025</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -2271,7 +2376,7 @@
         <v>404</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -2293,6 +2398,9 @@
       </c>
       <c r="N37" s="7">
         <v>7.1</v>
+      </c>
+      <c r="O37">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
